--- a/IEDC_Classification_fill/Official_classifications/EXIOBASEv3_163Products.xlsx
+++ b/IEDC_Classification_fill/Official_classifications/EXIOBASEv3_163Products.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Definition" sheetId="2" r:id="rId1"/>
@@ -2033,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2058,6 +2058,9 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2268,8 +2271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
